--- a/Charts/DCCP_TCP.xlsx
+++ b/Charts/DCCP_TCP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Studies\Magisterka\Repository\Charts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Studies\Magisterka\Repo\AdaptiveStreaming\Charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -190,7 +190,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -927,11 +926,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="273602832"/>
-        <c:axId val="273603392"/>
+        <c:axId val="218406880"/>
+        <c:axId val="218407440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="273602832"/>
+        <c:axId val="218406880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -974,7 +973,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="273603392"/>
+        <c:crossAx val="218407440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -982,7 +981,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="273603392"/>
+        <c:axId val="218407440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1033,7 +1032,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="273602832"/>
+        <c:crossAx val="218406880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1047,7 +1046,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1387,154 +1385,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>2605.056</c:v>
+                  <c:v>3605.056</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2744.32</c:v>
+                  <c:v>3744.33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2621.44</c:v>
+                  <c:v>3631.44</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2703.36</c:v>
+                  <c:v>3703.36</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2646.0160000000001</c:v>
+                  <c:v>3646.0160000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2637.8240000000001</c:v>
+                  <c:v>3637.8339999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2703.36</c:v>
+                  <c:v>3703.36</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2662.4</c:v>
+                  <c:v>3663.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2686.9760000000001</c:v>
+                  <c:v>3686.9760000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2711.5520000000001</c:v>
+                  <c:v>3711.5529999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2637.8240000000001</c:v>
+                  <c:v>3637.8339999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2629.6320000000001</c:v>
+                  <c:v>3639.6329999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2629.6320000000001</c:v>
+                  <c:v>3639.6329999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2662.4</c:v>
+                  <c:v>3663.4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2564.096</c:v>
+                  <c:v>3564.096</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2695.1680000000001</c:v>
+                  <c:v>3695.1680000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2711.5520000000001</c:v>
+                  <c:v>3711.5529999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2482.1759999999999</c:v>
+                  <c:v>3483.1759999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2646.0160000000001</c:v>
+                  <c:v>3646.0160000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2703.36</c:v>
+                  <c:v>3703.36</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2670.5920000000001</c:v>
+                  <c:v>3670.5929999999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2744.32</c:v>
+                  <c:v>3744.33</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2719.7440000000001</c:v>
+                  <c:v>3719.7440000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2695.1680000000001</c:v>
+                  <c:v>3695.1680000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2670.5920000000001</c:v>
+                  <c:v>3670.5929999999998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2375.6799999999998</c:v>
+                  <c:v>3375.68</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2686.9760000000001</c:v>
+                  <c:v>3686.9760000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2654.2080000000001</c:v>
+                  <c:v>3654.308</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2703.36</c:v>
+                  <c:v>3703.36</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2654.2080000000001</c:v>
+                  <c:v>3654.308</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2629.6320000000001</c:v>
+                  <c:v>3639.6329999999998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2711.5520000000001</c:v>
+                  <c:v>3711.5529999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2703.36</c:v>
+                  <c:v>3703.36</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2686.9760000000001</c:v>
+                  <c:v>3686.9760000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2736.1280000000002</c:v>
+                  <c:v>3736.1379999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2703.36</c:v>
+                  <c:v>3703.36</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2736.1280000000002</c:v>
+                  <c:v>3736.1379999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2695.1680000000001</c:v>
+                  <c:v>3695.1680000000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2744.32</c:v>
+                  <c:v>3744.33</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2637.8240000000001</c:v>
+                  <c:v>3637.8339999999998</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2383.8719999999998</c:v>
+                  <c:v>3383.873</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2703.36</c:v>
+                  <c:v>3703.36</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2695.1680000000001</c:v>
+                  <c:v>3695.1680000000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2686.9760000000001</c:v>
+                  <c:v>3686.9760000000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2711.5520000000001</c:v>
+                  <c:v>3711.5529999999999</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2621.44</c:v>
+                  <c:v>3631.44</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2662.4</c:v>
+                  <c:v>3663.4</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2719.7440000000001</c:v>
+                  <c:v>3719.7440000000001</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2736.1280000000002</c:v>
+                  <c:v>3736.1379999999999</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2703.36</c:v>
+                  <c:v>3703.36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1733,154 +1731,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>2850.8159999999998</c:v>
+                  <c:v>3850.8159999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2646.0160000000001</c:v>
+                  <c:v>3646.0160000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2310.1439999999998</c:v>
+                  <c:v>3310.1439999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2129.92</c:v>
+                  <c:v>3139.93</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1875.9680000000001</c:v>
+                  <c:v>2875.9679999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2015.232</c:v>
+                  <c:v>3015.3330000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2039.808</c:v>
+                  <c:v>3039.808</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1818.624</c:v>
+                  <c:v>2818.634</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1867.7760000000001</c:v>
+                  <c:v>2867.7759999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2072.576</c:v>
+                  <c:v>3073.576</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1859.5840000000001</c:v>
+                  <c:v>2859.5839999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2252.8000000000002</c:v>
+                  <c:v>3353.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1884.16</c:v>
+                  <c:v>2884.16</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2080.768</c:v>
+                  <c:v>3080.768</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2039.808</c:v>
+                  <c:v>3039.808</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1941.5039999999999</c:v>
+                  <c:v>2941.5039999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1884.16</c:v>
+                  <c:v>2884.16</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2121.7280000000001</c:v>
+                  <c:v>3131.7379999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2039.808</c:v>
+                  <c:v>3039.808</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1843.2</c:v>
+                  <c:v>2843.3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2121.7280000000001</c:v>
+                  <c:v>3131.7379999999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1957.8879999999999</c:v>
+                  <c:v>2957.8879999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1933.3119999999999</c:v>
+                  <c:v>2933.3130000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1851.3920000000001</c:v>
+                  <c:v>2851.393</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1720.32</c:v>
+                  <c:v>2730.33</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2310.1439999999998</c:v>
+                  <c:v>3310.1439999999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2187.2640000000001</c:v>
+                  <c:v>3187.364</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1794.048</c:v>
+                  <c:v>2794.0479999999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2105.3440000000001</c:v>
+                  <c:v>3105.3440000000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1974.2719999999999</c:v>
+                  <c:v>2974.373</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1794.048</c:v>
+                  <c:v>2794.0479999999998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2187.2640000000001</c:v>
+                  <c:v>3187.364</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1982.4639999999999</c:v>
+                  <c:v>2983.4639999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1892.3520000000001</c:v>
+                  <c:v>2893.3530000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2015.232</c:v>
+                  <c:v>3015.3330000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1720.32</c:v>
+                  <c:v>2730.33</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2080.768</c:v>
+                  <c:v>3080.768</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1892.3520000000001</c:v>
+                  <c:v>2893.3530000000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1998.848</c:v>
+                  <c:v>2998.848</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1867.7760000000001</c:v>
+                  <c:v>2867.7759999999998</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2039.808</c:v>
+                  <c:v>3039.808</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2072.576</c:v>
+                  <c:v>3073.576</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2031.616</c:v>
+                  <c:v>3031.616</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2056.192</c:v>
+                  <c:v>3056.1930000000002</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1794.048</c:v>
+                  <c:v>2794.0479999999998</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2023.424</c:v>
+                  <c:v>3033.4340000000002</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1900.5440000000001</c:v>
+                  <c:v>2900.5439999999999</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2154.4960000000001</c:v>
+                  <c:v>3154.4960000000001</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1761.28</c:v>
+                  <c:v>2761.38</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2023.424</c:v>
+                  <c:v>3033.4340000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1896,11 +1894,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="287747840"/>
-        <c:axId val="287748400"/>
+        <c:axId val="218411920"/>
+        <c:axId val="218412480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="287747840"/>
+        <c:axId val="218411920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1943,7 +1941,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="287748400"/>
+        <c:crossAx val="218412480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1951,7 +1949,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="287748400"/>
+        <c:axId val="218412480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2002,7 +2000,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="287747840"/>
+        <c:crossAx val="218411920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6409,8 +6407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6439,10 +6437,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2605.056</v>
+        <v>3605.056</v>
       </c>
       <c r="C2">
-        <v>2850.8159999999998</v>
+        <v>3850.8159999999998</v>
       </c>
       <c r="D2">
         <v>5455.8720000000003</v>
@@ -6453,10 +6451,10 @@
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>2744.32</v>
+        <v>3744.33</v>
       </c>
       <c r="C3">
-        <v>2646.0160000000001</v>
+        <v>3646.0160000000001</v>
       </c>
       <c r="D3">
         <v>5390.3360000000002</v>
@@ -6467,10 +6465,10 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>2621.44</v>
+        <v>3631.44</v>
       </c>
       <c r="C4">
-        <v>2310.1439999999998</v>
+        <v>3310.1439999999998</v>
       </c>
       <c r="D4">
         <v>4931.5839999999998</v>
@@ -6481,10 +6479,10 @@
         <v>1.5</v>
       </c>
       <c r="B5">
-        <v>2703.36</v>
+        <v>3703.36</v>
       </c>
       <c r="C5">
-        <v>2129.92</v>
+        <v>3139.93</v>
       </c>
       <c r="D5">
         <v>4833.28</v>
@@ -6495,10 +6493,10 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>2646.0160000000001</v>
+        <v>3646.0160000000001</v>
       </c>
       <c r="C6">
-        <v>1875.9680000000001</v>
+        <v>2875.9679999999998</v>
       </c>
       <c r="D6">
         <v>4521.9840000000004</v>
@@ -6509,10 +6507,10 @@
         <v>2.5</v>
       </c>
       <c r="B7">
-        <v>2637.8240000000001</v>
+        <v>3637.8339999999998</v>
       </c>
       <c r="C7">
-        <v>2015.232</v>
+        <v>3015.3330000000001</v>
       </c>
       <c r="D7">
         <v>4653.0559999999996</v>
@@ -6523,10 +6521,10 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>2703.36</v>
+        <v>3703.36</v>
       </c>
       <c r="C8">
-        <v>2039.808</v>
+        <v>3039.808</v>
       </c>
       <c r="D8">
         <v>4743.1679999999997</v>
@@ -6537,10 +6535,10 @@
         <v>3.5</v>
       </c>
       <c r="B9">
-        <v>2662.4</v>
+        <v>3663.4</v>
       </c>
       <c r="C9">
-        <v>1818.624</v>
+        <v>2818.634</v>
       </c>
       <c r="D9">
         <v>4481.0240000000003</v>
@@ -6551,10 +6549,10 @@
         <v>4</v>
       </c>
       <c r="B10">
-        <v>2686.9760000000001</v>
+        <v>3686.9760000000001</v>
       </c>
       <c r="C10">
-        <v>1867.7760000000001</v>
+        <v>2867.7759999999998</v>
       </c>
       <c r="D10">
         <v>4554.7520000000004</v>
@@ -6565,10 +6563,10 @@
         <v>4.5</v>
       </c>
       <c r="B11">
-        <v>2711.5520000000001</v>
+        <v>3711.5529999999999</v>
       </c>
       <c r="C11">
-        <v>2072.576</v>
+        <v>3073.576</v>
       </c>
       <c r="D11">
         <v>4784.1279999999997</v>
@@ -6579,10 +6577,10 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <v>2637.8240000000001</v>
+        <v>3637.8339999999998</v>
       </c>
       <c r="C12">
-        <v>1859.5840000000001</v>
+        <v>2859.5839999999998</v>
       </c>
       <c r="D12">
         <v>4497.4080000000004</v>
@@ -6593,10 +6591,10 @@
         <v>5.5</v>
       </c>
       <c r="B13">
-        <v>2629.6320000000001</v>
+        <v>3639.6329999999998</v>
       </c>
       <c r="C13">
-        <v>2252.8000000000002</v>
+        <v>3353.8</v>
       </c>
       <c r="D13">
         <v>4882.4319999999998</v>
@@ -6607,10 +6605,10 @@
         <v>6</v>
       </c>
       <c r="B14">
-        <v>2629.6320000000001</v>
+        <v>3639.6329999999998</v>
       </c>
       <c r="C14">
-        <v>1884.16</v>
+        <v>2884.16</v>
       </c>
       <c r="D14">
         <v>4513.7920000000004</v>
@@ -6621,10 +6619,10 @@
         <v>6.5</v>
       </c>
       <c r="B15">
-        <v>2662.4</v>
+        <v>3663.4</v>
       </c>
       <c r="C15">
-        <v>2080.768</v>
+        <v>3080.768</v>
       </c>
       <c r="D15">
         <v>4743.1679999999997</v>
@@ -6635,10 +6633,10 @@
         <v>7</v>
       </c>
       <c r="B16">
-        <v>2564.096</v>
+        <v>3564.096</v>
       </c>
       <c r="C16">
-        <v>2039.808</v>
+        <v>3039.808</v>
       </c>
       <c r="D16">
         <v>4603.9040000000005</v>
@@ -6649,10 +6647,10 @@
         <v>7.5</v>
       </c>
       <c r="B17">
-        <v>2695.1680000000001</v>
+        <v>3695.1680000000001</v>
       </c>
       <c r="C17">
-        <v>1941.5039999999999</v>
+        <v>2941.5039999999999</v>
       </c>
       <c r="D17">
         <v>4636.6719999999996</v>
@@ -6663,10 +6661,10 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>2711.5520000000001</v>
+        <v>3711.5529999999999</v>
       </c>
       <c r="C18">
-        <v>1884.16</v>
+        <v>2884.16</v>
       </c>
       <c r="D18">
         <v>4595.7120000000004</v>
@@ -6677,10 +6675,10 @@
         <v>8.5</v>
       </c>
       <c r="B19">
-        <v>2482.1759999999999</v>
+        <v>3483.1759999999999</v>
       </c>
       <c r="C19">
-        <v>2121.7280000000001</v>
+        <v>3131.7379999999998</v>
       </c>
       <c r="D19">
         <v>4603.9040000000005</v>
@@ -6691,10 +6689,10 @@
         <v>9</v>
       </c>
       <c r="B20">
-        <v>2646.0160000000001</v>
+        <v>3646.0160000000001</v>
       </c>
       <c r="C20">
-        <v>2039.808</v>
+        <v>3039.808</v>
       </c>
       <c r="D20">
         <v>4685.8239999999996</v>
@@ -6705,10 +6703,10 @@
         <v>9.5</v>
       </c>
       <c r="B21">
-        <v>2703.36</v>
+        <v>3703.36</v>
       </c>
       <c r="C21">
-        <v>1843.2</v>
+        <v>2843.3</v>
       </c>
       <c r="D21">
         <v>4546.5600000000004</v>
@@ -6719,10 +6717,10 @@
         <v>10</v>
       </c>
       <c r="B22">
-        <v>2670.5920000000001</v>
+        <v>3670.5929999999998</v>
       </c>
       <c r="C22">
-        <v>2121.7280000000001</v>
+        <v>3131.7379999999998</v>
       </c>
       <c r="D22">
         <v>4792.32</v>
@@ -6733,10 +6731,10 @@
         <v>10.5</v>
       </c>
       <c r="B23">
-        <v>2744.32</v>
+        <v>3744.33</v>
       </c>
       <c r="C23">
-        <v>1957.8879999999999</v>
+        <v>2957.8879999999999</v>
       </c>
       <c r="D23">
         <v>4702.2079999999996</v>
@@ -6747,10 +6745,10 @@
         <v>11</v>
       </c>
       <c r="B24">
-        <v>2719.7440000000001</v>
+        <v>3719.7440000000001</v>
       </c>
       <c r="C24">
-        <v>1933.3119999999999</v>
+        <v>2933.3130000000001</v>
       </c>
       <c r="D24">
         <v>4653.0559999999996</v>
@@ -6761,10 +6759,10 @@
         <v>11.5</v>
       </c>
       <c r="B25">
-        <v>2695.1680000000001</v>
+        <v>3695.1680000000001</v>
       </c>
       <c r="C25">
-        <v>1851.3920000000001</v>
+        <v>2851.393</v>
       </c>
       <c r="D25">
         <v>4546.5600000000004</v>
@@ -6775,10 +6773,10 @@
         <v>12</v>
       </c>
       <c r="B26">
-        <v>2670.5920000000001</v>
+        <v>3670.5929999999998</v>
       </c>
       <c r="C26">
-        <v>1720.32</v>
+        <v>2730.33</v>
       </c>
       <c r="D26">
         <v>4390.9120000000003</v>
@@ -6789,10 +6787,10 @@
         <v>12.5</v>
       </c>
       <c r="B27">
-        <v>2375.6799999999998</v>
+        <v>3375.68</v>
       </c>
       <c r="C27">
-        <v>2310.1439999999998</v>
+        <v>3310.1439999999998</v>
       </c>
       <c r="D27">
         <v>4685.8239999999996</v>
@@ -6803,10 +6801,10 @@
         <v>13</v>
       </c>
       <c r="B28">
-        <v>2686.9760000000001</v>
+        <v>3686.9760000000001</v>
       </c>
       <c r="C28">
-        <v>2187.2640000000001</v>
+        <v>3187.364</v>
       </c>
       <c r="D28">
         <v>4874.24</v>
@@ -6817,10 +6815,10 @@
         <v>13.5</v>
       </c>
       <c r="B29">
-        <v>2654.2080000000001</v>
+        <v>3654.308</v>
       </c>
       <c r="C29">
-        <v>1794.048</v>
+        <v>2794.0479999999998</v>
       </c>
       <c r="D29">
         <v>4448.2560000000003</v>
@@ -6831,10 +6829,10 @@
         <v>14</v>
       </c>
       <c r="B30">
-        <v>2703.36</v>
+        <v>3703.36</v>
       </c>
       <c r="C30">
-        <v>2105.3440000000001</v>
+        <v>3105.3440000000001</v>
       </c>
       <c r="D30">
         <v>4808.7039999999997</v>
@@ -6845,10 +6843,10 @@
         <v>14.5</v>
       </c>
       <c r="B31">
-        <v>2654.2080000000001</v>
+        <v>3654.308</v>
       </c>
       <c r="C31">
-        <v>1974.2719999999999</v>
+        <v>2974.373</v>
       </c>
       <c r="D31">
         <v>4628.4799999999996</v>
@@ -6859,10 +6857,10 @@
         <v>15</v>
       </c>
       <c r="B32">
-        <v>2629.6320000000001</v>
+        <v>3639.6329999999998</v>
       </c>
       <c r="C32">
-        <v>1794.048</v>
+        <v>2794.0479999999998</v>
       </c>
       <c r="D32">
         <v>4423.68</v>
@@ -6873,10 +6871,10 @@
         <v>15.5</v>
       </c>
       <c r="B33">
-        <v>2711.5520000000001</v>
+        <v>3711.5529999999999</v>
       </c>
       <c r="C33">
-        <v>2187.2640000000001</v>
+        <v>3187.364</v>
       </c>
       <c r="D33">
         <v>4898.8159999999998</v>
@@ -6887,10 +6885,10 @@
         <v>16</v>
       </c>
       <c r="B34">
-        <v>2703.36</v>
+        <v>3703.36</v>
       </c>
       <c r="C34">
-        <v>1982.4639999999999</v>
+        <v>2983.4639999999999</v>
       </c>
       <c r="D34">
         <v>4685.8239999999996</v>
@@ -6901,10 +6899,10 @@
         <v>16.5</v>
       </c>
       <c r="B35">
-        <v>2686.9760000000001</v>
+        <v>3686.9760000000001</v>
       </c>
       <c r="C35">
-        <v>1892.3520000000001</v>
+        <v>2893.3530000000001</v>
       </c>
       <c r="D35">
         <v>4579.3280000000004</v>
@@ -6915,10 +6913,10 @@
         <v>17</v>
       </c>
       <c r="B36">
-        <v>2736.1280000000002</v>
+        <v>3736.1379999999999</v>
       </c>
       <c r="C36">
-        <v>2015.232</v>
+        <v>3015.3330000000001</v>
       </c>
       <c r="D36">
         <v>4751.3599999999997</v>
@@ -6929,10 +6927,10 @@
         <v>17.5</v>
       </c>
       <c r="B37">
-        <v>2703.36</v>
+        <v>3703.36</v>
       </c>
       <c r="C37">
-        <v>1720.32</v>
+        <v>2730.33</v>
       </c>
       <c r="D37">
         <v>4423.68</v>
@@ -6943,10 +6941,10 @@
         <v>18</v>
       </c>
       <c r="B38">
-        <v>2736.1280000000002</v>
+        <v>3736.1379999999999</v>
       </c>
       <c r="C38">
-        <v>2080.768</v>
+        <v>3080.768</v>
       </c>
       <c r="D38">
         <v>4816.8959999999997</v>
@@ -6957,10 +6955,10 @@
         <v>18.5</v>
       </c>
       <c r="B39">
-        <v>2695.1680000000001</v>
+        <v>3695.1680000000001</v>
       </c>
       <c r="C39">
-        <v>1892.3520000000001</v>
+        <v>2893.3530000000001</v>
       </c>
       <c r="D39">
         <v>4587.5200000000004</v>
@@ -6971,10 +6969,10 @@
         <v>19</v>
       </c>
       <c r="B40">
-        <v>2744.32</v>
+        <v>3744.33</v>
       </c>
       <c r="C40">
-        <v>1998.848</v>
+        <v>2998.848</v>
       </c>
       <c r="D40">
         <v>4743.1679999999997</v>
@@ -6985,10 +6983,10 @@
         <v>19.5</v>
       </c>
       <c r="B41">
-        <v>2637.8240000000001</v>
+        <v>3637.8339999999998</v>
       </c>
       <c r="C41">
-        <v>1867.7760000000001</v>
+        <v>2867.7759999999998</v>
       </c>
       <c r="D41">
         <v>4505.6000000000004</v>
@@ -6999,10 +6997,10 @@
         <v>20</v>
       </c>
       <c r="B42">
-        <v>2383.8719999999998</v>
+        <v>3383.873</v>
       </c>
       <c r="C42">
-        <v>2039.808</v>
+        <v>3039.808</v>
       </c>
       <c r="D42">
         <v>4423.68</v>
@@ -7013,10 +7011,10 @@
         <v>20.5</v>
       </c>
       <c r="B43">
-        <v>2703.36</v>
+        <v>3703.36</v>
       </c>
       <c r="C43">
-        <v>2072.576</v>
+        <v>3073.576</v>
       </c>
       <c r="D43">
         <v>4775.9359999999997</v>
@@ -7027,10 +7025,10 @@
         <v>21</v>
       </c>
       <c r="B44">
-        <v>2695.1680000000001</v>
+        <v>3695.1680000000001</v>
       </c>
       <c r="C44">
-        <v>2031.616</v>
+        <v>3031.616</v>
       </c>
       <c r="D44">
         <v>4726.7839999999997</v>
@@ -7041,10 +7039,10 @@
         <v>21.5</v>
       </c>
       <c r="B45">
-        <v>2686.9760000000001</v>
+        <v>3686.9760000000001</v>
       </c>
       <c r="C45">
-        <v>2056.192</v>
+        <v>3056.1930000000002</v>
       </c>
       <c r="D45">
         <v>4743.1679999999997</v>
@@ -7055,10 +7053,10 @@
         <v>22</v>
       </c>
       <c r="B46">
-        <v>2711.5520000000001</v>
+        <v>3711.5529999999999</v>
       </c>
       <c r="C46">
-        <v>1794.048</v>
+        <v>2794.0479999999998</v>
       </c>
       <c r="D46">
         <v>4505.6000000000004</v>
@@ -7069,10 +7067,10 @@
         <v>22.5</v>
       </c>
       <c r="B47">
-        <v>2621.44</v>
+        <v>3631.44</v>
       </c>
       <c r="C47">
-        <v>2023.424</v>
+        <v>3033.4340000000002</v>
       </c>
       <c r="D47">
         <v>4644.8639999999996</v>
@@ -7083,10 +7081,10 @@
         <v>23</v>
       </c>
       <c r="B48">
-        <v>2662.4</v>
+        <v>3663.4</v>
       </c>
       <c r="C48">
-        <v>1900.5440000000001</v>
+        <v>2900.5439999999999</v>
       </c>
       <c r="D48">
         <v>4562.9440000000004</v>
@@ -7097,10 +7095,10 @@
         <v>23.5</v>
       </c>
       <c r="B49">
-        <v>2719.7440000000001</v>
+        <v>3719.7440000000001</v>
       </c>
       <c r="C49">
-        <v>2154.4960000000001</v>
+        <v>3154.4960000000001</v>
       </c>
       <c r="D49">
         <v>4874.24</v>
@@ -7111,10 +7109,10 @@
         <v>24</v>
       </c>
       <c r="B50">
-        <v>2736.1280000000002</v>
+        <v>3736.1379999999999</v>
       </c>
       <c r="C50">
-        <v>1761.28</v>
+        <v>2761.38</v>
       </c>
       <c r="D50">
         <v>4497.4080000000004</v>
@@ -7125,10 +7123,10 @@
         <v>24.5</v>
       </c>
       <c r="B51">
-        <v>2703.36</v>
+        <v>3703.36</v>
       </c>
       <c r="C51">
-        <v>2023.424</v>
+        <v>3033.4340000000002</v>
       </c>
       <c r="D51">
         <v>4726.7839999999997</v>
@@ -7140,11 +7138,11 @@
       </c>
       <c r="B52">
         <f>AVERAGE(B2:B51)</f>
-        <v>2665.3491199999994</v>
+        <v>3666.4351200000001</v>
       </c>
       <c r="C52">
         <f>AVERAGE(C2:C51)</f>
-        <v>2016.3788799999998</v>
+        <v>3019.9146400000004</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -7153,11 +7151,11 @@
       </c>
       <c r="B53">
         <f>_xlfn.STDEV.P(B2:B52)</f>
-        <v>74.989028279996063</v>
+        <v>74.485850873693082</v>
       </c>
       <c r="C53">
         <f>_xlfn.STDEV.P(C2:C51)</f>
-        <v>206.50347063355895</v>
+        <v>209.03456675925736</v>
       </c>
     </row>
   </sheetData>
